--- a/biology/Zoologie/Crapaud_boréal/Crapaud_boréal.xlsx
+++ b/biology/Zoologie/Crapaud_boréal/Crapaud_boréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crapaud_bor%C3%A9al</t>
+          <t>Crapaud_boréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaxyrus boreas
-Anaxyrus boreas, le Crapaud boréal, également appelé Crapaud de l'Ouest, est une espèce d'amphibiens de la famille des Bufonidae[1].
+Anaxyrus boreas, le Crapaud boréal, également appelé Crapaud de l'Ouest, est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crapaud_bor%C3%A9al</t>
+          <t>Crapaud_boréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Nord le long de la côte Pacifique jusqu'à au moins 3 640 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Nord le long de la côte Pacifique jusqu'à au moins 3 640 m d'altitude, :
 dans le sud-est de l'Alaska ;
 dans l'ouest du Canada, en Colombie-Britannique, dans l'ouest de l'Alberta et dans le sud du Yukon ;
 dans l'ouest des États-Unis, au Montana, au Wyoming, en Utah, au Colorado, en Californie, en Idaho, au Nevada, en Oregon et dans l'État de Washington ; elle était autrefois présente au Nouveau-Mexique ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crapaud_bor%C3%A9al</t>
+          <t>Crapaud_boréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a une espérance de vie de onze ans.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crapaud_bor%C3%A9al</t>
+          <t>Crapaud_boréal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes se rassemblent près d'un cours d'eau peu profond durant une à deux semaines. Chaque femelle pond entre 5 000 et 15 000 œufs. L'âge adulte est atteint à quatre ou cinq ans pour les femelles, trois ans pour les mâles.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crapaud_bor%C3%A9al</t>
+          <t>Crapaud_boréal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux sous-espèces sont parfois reconnues Anaxyrus boreas boreas et Anaxyrus boreas halophilus.
-Goebel et al. en 2009[3] observe que cette espèce est en fait un complexe d'espèce.
+Goebel et al. en 2009 observe que cette espèce est en fait un complexe d'espèce.
 </t>
         </is>
       </c>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Crapaud_bor%C3%A9al</t>
+          <t>Crapaud_boréal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1852 : Descriptions of new species of reptiles, collected by the U.S. Exploring Expedition under the command of Capt. Charles Wilkes, U.S.N. First part — Including the species from the western coast of America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 174-177 (texte intégral).</t>
         </is>
